--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -99,7 +99,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -607,7 +607,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Beshoy Maher Fouad Badras</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230183</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -818,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6660287037</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.6660287037</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4185712963</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4214519329</x:v>
+        <x:v>45907.4185712963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.4214519329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,12 @@
   </x:si>
   <x:si>
     <x:t>Youssef hussam elsayed abdelrahman hodhod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
   <x:si>
     <x:t>1200317</x:t>
@@ -308,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1239,11 +1245,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45926.4137069792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1264,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,12 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef hussam elsayed abdelrahman hodhod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
   <x:si>
     <x:t>1200317</x:t>
@@ -314,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1245,9 +1239,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45926.4137069792</x:v>
+        <x:v>45907.6651545139</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1264,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45907.6651545139</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Sherwet Mostafa Mohamed Amin Abbas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>4230152</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4214519329</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.4214519329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Roaa Hamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230321</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45929.4586280093</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4185712963</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.9547305556</x:v>
+        <x:v>45907.4185712963</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4214519329</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.4214519329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Sherwet Mostafa Mohamed Amin Abbas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>4230152</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.9547305556</x:v>
+        <x:v>45907.4214519329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4214519329</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4195636921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4195636921</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.6651545139</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45907.6651545139</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -93,7 +93,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230321</x:t>
@@ -626,7 +626,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS112_Tutorial-35292.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35292.xlsx
@@ -66,7 +66,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>4250171</x:t>
